--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffb3ce7ef8fb59be/Documents/Pawan online training 7.30Am/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{7BFA4D1D-F34B-4030-906C-CC6FBC19ABCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72E8825B-8858-4C6F-A948-614098688F1F}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="13_ncr:1_{7BFA4D1D-F34B-4030-906C-CC6FBC19ABCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77CC309A-C40B-4E31-AFA4-B5319A69FDBE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
   <si>
     <t>Concepts</t>
   </si>
@@ -346,10 +346,37 @@
     <t>Revise the collections</t>
   </si>
   <si>
-    <t>MultiThreading,File IO</t>
-  </si>
-  <si>
     <t>7.50AM-8:40AM</t>
+  </si>
+  <si>
+    <t>MultiThreading,thread,join,sleep,yeild</t>
+  </si>
+  <si>
+    <t>MultiThreading,threadwithsync and without sync ,InterthreadCommunication,File IO</t>
+  </si>
+  <si>
+    <t>7.40AM-9AM</t>
+  </si>
+  <si>
+    <t>understand interThread and practice File io</t>
+  </si>
+  <si>
+    <t>Java 8 Features,Lambda Expression,FI</t>
+  </si>
+  <si>
+    <t>7.30AM-8.25AM</t>
+  </si>
+  <si>
+    <t>work on Date and Time Api,Optional class</t>
+  </si>
+  <si>
+    <t>Java 8 Features,Object Class Methods</t>
+  </si>
+  <si>
+    <t>Junit,DataBase,mysql</t>
+  </si>
+  <si>
+    <t>8.00AM-9AM</t>
   </si>
 </sst>
 </file>
@@ -783,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1110,10 +1137,10 @@
         <v>45100</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>44</v>
@@ -1124,19 +1151,33 @@
       <c r="D21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="3"/>
+      <c r="E21" s="4">
+        <v>45105</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="5"/>
+      <c r="E22" s="4">
+        <v>45112</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
@@ -1144,19 +1185,33 @@
       <c r="D23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="3"/>
+      <c r="E23" s="4">
+        <v>45113</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="5"/>
+      <c r="E24" s="4">
+        <v>45118</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="M24" s="8" t="s">
@@ -1167,7 +1222,9 @@
       <c r="D25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="4">
+        <v>45119</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="5"/>
       <c r="H25" s="3"/>
@@ -1178,7 +1235,9 @@
       <c r="D26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="4">
+        <v>45120</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="5"/>
       <c r="H26" s="3"/>
@@ -1189,7 +1248,9 @@
       <c r="D27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4">
+        <v>45121</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="5"/>
       <c r="H27" s="3"/>
